--- a/Step1_Analysis.xlsx
+++ b/Step1_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matin\Documents\CIS890\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF95B65F-4091-4CA2-A0FF-C060AF9662E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF278208-3FA2-4768-9A65-E43478DD8106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>Column</t>
   </si>
@@ -64,9 +64,6 @@
     <t>int64</t>
   </si>
   <si>
-    <t>Loan Number</t>
-  </si>
-  <si>
     <t>FHLBankID</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>Impute</t>
+  </si>
+  <si>
+    <t>Drop Rows</t>
   </si>
 </sst>
 </file>
@@ -199,7 +199,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +215,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -301,6 +313,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,13 +626,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -670,7 +691,7 @@
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="13">
         <v>13</v>
       </c>
       <c r="D2" s="2">
@@ -705,218 +726,218 @@
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2">
-        <v>533336</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
+      <c r="B3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="13">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E3" s="2">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2690373</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1456297.0237365109</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1118998.4641129321</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
+        <v>128566</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="K3" s="2">
-        <v>8.0663267158085218E-4</v>
+        <v>17.284256009077311</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>6.7894271966960327</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="13">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2">
+        <v>39</v>
       </c>
       <c r="E4" s="2">
-        <v>128566</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>17</v>
+        <v>100232</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" s="2">
+        <v>28.91892400579162</v>
+      </c>
+      <c r="I4" s="2">
+        <v>12.994375695476529</v>
+      </c>
+      <c r="J4" s="2">
+        <v>39</v>
       </c>
       <c r="K4" s="2">
-        <v>17.284256009077311</v>
+        <v>13.47506765631533</v>
       </c>
       <c r="L4" s="2">
-        <v>6.7894271966960327</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2">
-        <v>54</v>
-      </c>
-      <c r="D5" s="2">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2">
-        <v>100232</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="14">
+        <v>275</v>
+      </c>
+      <c r="D5" s="9">
+        <v>61</v>
+      </c>
+      <c r="E5" s="9">
+        <v>27729</v>
+      </c>
+      <c r="F5" s="9">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" s="2">
-        <v>28.91892400579162</v>
-      </c>
-      <c r="I5" s="2">
-        <v>12.994375695476529</v>
-      </c>
-      <c r="J5" s="2">
-        <v>39</v>
-      </c>
-      <c r="K5" s="2">
-        <v>13.47506765631533</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="G5" s="9">
+        <v>840</v>
+      </c>
+      <c r="H5" s="9">
+        <v>84.843860113762091</v>
+      </c>
+      <c r="I5" s="9">
+        <v>68.565874969722316</v>
+      </c>
+      <c r="J5" s="9">
+        <v>61</v>
+      </c>
+      <c r="K5" s="9">
+        <v>3.7278528917109082</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9">
-        <v>275</v>
-      </c>
-      <c r="D6" s="9">
-        <v>61</v>
-      </c>
-      <c r="E6" s="9">
-        <v>27729</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1012</v>
+      </c>
+      <c r="D6" s="2">
+        <v>99999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>123948</v>
+      </c>
+      <c r="F6" s="2">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2">
+        <v>99999</v>
+      </c>
+      <c r="H6" s="2">
+        <v>40097.304128749332</v>
+      </c>
+      <c r="I6" s="2">
+        <v>28534.893908390801</v>
+      </c>
+      <c r="J6" s="2">
+        <v>99999</v>
+      </c>
+      <c r="K6" s="2">
+        <v>16.663417729517239</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="11">
+        <v>20693</v>
+      </c>
+      <c r="D7" s="11">
+        <v>9601</v>
+      </c>
+      <c r="E7" s="11">
+        <v>5133</v>
+      </c>
+      <c r="F7" s="11">
         <v>1</v>
       </c>
-      <c r="G6" s="9">
-        <v>840</v>
-      </c>
-      <c r="H6" s="9">
-        <v>84.843860113762091</v>
-      </c>
-      <c r="I6" s="9">
-        <v>68.565874969722316</v>
-      </c>
-      <c r="J6" s="9">
-        <v>61</v>
-      </c>
-      <c r="K6" s="9">
-        <v>3.7278528917109082</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1012</v>
-      </c>
-      <c r="D7" s="2">
-        <v>99999</v>
-      </c>
-      <c r="E7" s="2">
-        <v>123948</v>
-      </c>
-      <c r="F7" s="2">
-        <v>29</v>
-      </c>
-      <c r="G7" s="2">
-        <v>99999</v>
-      </c>
-      <c r="H7" s="2">
-        <v>40097.304128749332</v>
-      </c>
-      <c r="I7" s="2">
-        <v>28534.893908390801</v>
-      </c>
-      <c r="J7" s="2">
-        <v>99999</v>
-      </c>
-      <c r="K7" s="2">
-        <v>16.663417729517239</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="G7" s="11">
+        <v>47700</v>
+      </c>
+      <c r="H7" s="11">
+        <v>3110.1069756517941</v>
+      </c>
+      <c r="I7" s="11">
+        <v>3891.420896119625</v>
+      </c>
+      <c r="J7" s="11">
+        <v>9601</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.690074250537419</v>
+      </c>
+      <c r="L7" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="11">
-        <v>20693</v>
-      </c>
-      <c r="D8" s="11">
-        <v>9601</v>
-      </c>
-      <c r="E8" s="11">
-        <v>5133</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11">
-        <v>47700</v>
-      </c>
-      <c r="H8" s="11">
-        <v>3110.1069756517941</v>
-      </c>
-      <c r="I8" s="11">
-        <v>3891.420896119625</v>
-      </c>
-      <c r="J8" s="11">
-        <v>9601</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0.690074250537419</v>
-      </c>
-      <c r="L8" s="11">
+      <c r="C8" s="2">
+        <v>30927</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4212</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>100</v>
+      </c>
+      <c r="H8" s="2">
+        <v>13.88463732450699</v>
+      </c>
+      <c r="I8" s="2">
+        <v>15.82941954961766</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.56625613544975828</v>
+      </c>
+      <c r="L8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -925,34 +946,34 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
-        <v>30927</v>
+        <v>64835</v>
       </c>
       <c r="D9" s="2">
-        <v>2</v>
+        <v>73750</v>
       </c>
       <c r="E9" s="2">
-        <v>4212</v>
+        <v>865</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>100</v>
+        <v>250001</v>
       </c>
       <c r="H9" s="2">
-        <v>13.88463732450699</v>
+        <v>76388.481273350335</v>
       </c>
       <c r="I9" s="2">
-        <v>15.82941954961766</v>
+        <v>29187.221754877599</v>
       </c>
       <c r="J9" s="2">
-        <v>2</v>
+        <v>73750</v>
       </c>
       <c r="K9" s="2">
-        <v>0.56625613544975828</v>
+        <v>0.1162895434862395</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -966,31 +987,31 @@
         <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>64835</v>
+        <v>5537</v>
       </c>
       <c r="D10" s="2">
-        <v>73750</v>
+        <v>54771</v>
       </c>
       <c r="E10" s="2">
-        <v>865</v>
+        <v>17936</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>250001</v>
+        <v>150332</v>
       </c>
       <c r="H10" s="2">
-        <v>76388.481273350335</v>
+        <v>64695.57938945973</v>
       </c>
       <c r="I10" s="2">
-        <v>29187.221754877599</v>
+        <v>14730.638547233129</v>
       </c>
       <c r="J10" s="2">
-        <v>73750</v>
+        <v>54771</v>
       </c>
       <c r="K10" s="2">
-        <v>0.1162895434862395</v>
+        <v>2.4112939329123608</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -1004,31 +1025,31 @@
         <v>13</v>
       </c>
       <c r="C11" s="2">
-        <v>5537</v>
+        <v>160283</v>
       </c>
       <c r="D11" s="2">
-        <v>54771</v>
+        <v>60000</v>
       </c>
       <c r="E11" s="2">
-        <v>17936</v>
+        <v>1224</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>150332</v>
+        <v>36178212</v>
       </c>
       <c r="H11" s="2">
-        <v>64695.57938945973</v>
+        <v>74241.086179290243</v>
       </c>
       <c r="I11" s="2">
-        <v>14730.638547233129</v>
+        <v>108029.31002123879</v>
       </c>
       <c r="J11" s="2">
-        <v>54771</v>
+        <v>60000</v>
       </c>
       <c r="K11" s="2">
-        <v>2.4112939329123608</v>
+        <v>0.16455306500249381</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -1042,31 +1063,31 @@
         <v>13</v>
       </c>
       <c r="C12" s="2">
-        <v>160283</v>
+        <v>735</v>
       </c>
       <c r="D12" s="2">
-        <v>60000</v>
+        <v>70400</v>
       </c>
       <c r="E12" s="2">
-        <v>1224</v>
+        <v>11521</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>18400</v>
       </c>
       <c r="G12" s="2">
-        <v>36178212</v>
+        <v>149500</v>
       </c>
       <c r="H12" s="2">
-        <v>74241.086179290243</v>
+        <v>70436.273257572597</v>
       </c>
       <c r="I12" s="2">
-        <v>108029.31002123879</v>
+        <v>13535.39987169949</v>
       </c>
       <c r="J12" s="2">
-        <v>60000</v>
+        <v>70400</v>
       </c>
       <c r="K12" s="2">
-        <v>0.16455306500249381</v>
+        <v>1.5488691682138329</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
@@ -1080,31 +1101,31 @@
         <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>735</v>
+        <v>114889</v>
       </c>
       <c r="D13" s="2">
-        <v>70400</v>
+        <v>100000</v>
       </c>
       <c r="E13" s="2">
-        <v>11521</v>
+        <v>6787</v>
       </c>
       <c r="F13" s="2">
-        <v>18400</v>
+        <v>5693</v>
       </c>
       <c r="G13" s="2">
-        <v>149500</v>
+        <v>1290000</v>
       </c>
       <c r="H13" s="2">
-        <v>70436.273257572597</v>
+        <v>201218.06629445049</v>
       </c>
       <c r="I13" s="2">
-        <v>13535.39987169949</v>
+        <v>119426.70501304101</v>
       </c>
       <c r="J13" s="2">
-        <v>70400</v>
+        <v>100000</v>
       </c>
       <c r="K13" s="2">
-        <v>1.5488691682138329</v>
+        <v>0.91243599033654055</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -1115,34 +1136,34 @@
         <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2">
-        <v>114889</v>
+        <v>9513</v>
       </c>
       <c r="D14" s="2">
-        <v>100000</v>
+        <v>0.8</v>
       </c>
       <c r="E14" s="2">
-        <v>6787</v>
+        <v>135587</v>
       </c>
       <c r="F14" s="2">
-        <v>5693</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G14" s="2">
-        <v>1290000</v>
+        <v>156</v>
       </c>
       <c r="H14" s="2">
-        <v>201218.06629445049</v>
+        <v>23.765277461473211</v>
       </c>
       <c r="I14" s="2">
-        <v>119426.70501304101</v>
+        <v>34.857000765625287</v>
       </c>
       <c r="J14" s="2">
-        <v>100000</v>
+        <v>0.8</v>
       </c>
       <c r="K14" s="2">
-        <v>0.91243599033654055</v>
+        <v>18.228150673605501</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -1153,34 +1174,34 @@
         <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2">
-        <v>9513</v>
+        <v>13</v>
+      </c>
+      <c r="C15" s="13">
+        <v>14</v>
       </c>
       <c r="D15" s="2">
-        <v>0.8</v>
+        <v>2019</v>
       </c>
       <c r="E15" s="2">
-        <v>135587</v>
+        <v>92884</v>
       </c>
       <c r="F15" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>2008</v>
       </c>
       <c r="G15" s="2">
-        <v>156</v>
+        <v>2021</v>
       </c>
       <c r="H15" s="2">
-        <v>23.765277461473211</v>
+        <v>2015.6576476171399</v>
       </c>
       <c r="I15" s="2">
-        <v>34.857000765625287</v>
+        <v>3.7863507807323482</v>
       </c>
       <c r="J15" s="2">
-        <v>0.8</v>
+        <v>2019</v>
       </c>
       <c r="K15" s="2">
-        <v>18.228150673605501</v>
+        <v>12.487211511185979</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
@@ -1193,32 +1214,32 @@
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2">
-        <v>14</v>
+      <c r="C16" s="13">
+        <v>13</v>
       </c>
       <c r="D16" s="2">
         <v>2019</v>
       </c>
       <c r="E16" s="2">
-        <v>92884</v>
+        <v>89767</v>
       </c>
       <c r="F16" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G16" s="2">
         <v>2021</v>
       </c>
       <c r="H16" s="2">
-        <v>2015.6576476171399</v>
+        <v>2015.710652794377</v>
       </c>
       <c r="I16" s="2">
-        <v>3.7863507807323482</v>
+        <v>3.7856524902413971</v>
       </c>
       <c r="J16" s="2">
         <v>2019</v>
       </c>
       <c r="K16" s="2">
-        <v>12.487211511185979</v>
+        <v>12.068165838299731</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -1231,32 +1252,32 @@
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2">
-        <v>13</v>
+      <c r="C17" s="13">
+        <v>4</v>
       </c>
       <c r="D17" s="2">
-        <v>2019</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2">
-        <v>89767</v>
+        <v>374202</v>
       </c>
       <c r="F17" s="2">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>2021</v>
+        <v>6</v>
       </c>
       <c r="H17" s="2">
-        <v>2015.710652794377</v>
+        <v>2.047580572520983</v>
       </c>
       <c r="I17" s="2">
-        <v>3.7856524902413971</v>
+        <v>1.457598260187325</v>
       </c>
       <c r="J17" s="2">
-        <v>2019</v>
+        <v>2</v>
       </c>
       <c r="K17" s="2">
-        <v>12.068165838299731</v>
+        <v>50.307259828483012</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -1270,31 +1291,31 @@
         <v>13</v>
       </c>
       <c r="C18" s="2">
-        <v>4</v>
+        <v>278</v>
       </c>
       <c r="D18" s="2">
-        <v>2</v>
+        <v>360</v>
       </c>
       <c r="E18" s="2">
-        <v>374202</v>
+        <v>532265</v>
       </c>
       <c r="F18" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G18" s="2">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="H18" s="2">
-        <v>2.047580572520983</v>
+        <v>314.94219401397902</v>
       </c>
       <c r="I18" s="2">
-        <v>1.457598260187325</v>
+        <v>75.141403037439986</v>
       </c>
       <c r="J18" s="2">
-        <v>2</v>
+        <v>360</v>
       </c>
       <c r="K18" s="2">
-        <v>50.307259828483012</v>
+        <v>71.557056489830387</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -1307,32 +1328,32 @@
       <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="2">
-        <v>278</v>
+      <c r="C19" s="13">
+        <v>6</v>
       </c>
       <c r="D19" s="2">
-        <v>360</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2">
-        <v>532265</v>
+        <v>450393</v>
       </c>
       <c r="F19" s="2">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>360</v>
+        <v>6</v>
       </c>
       <c r="H19" s="2">
-        <v>314.94219401397902</v>
+        <v>1.612149501299351</v>
       </c>
       <c r="I19" s="2">
-        <v>75.141403037439986</v>
+        <v>0.49600556890382191</v>
       </c>
       <c r="J19" s="2">
-        <v>360</v>
+        <v>2</v>
       </c>
       <c r="K19" s="2">
-        <v>71.557056489830387</v>
+        <v>60.550284808552448</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -1345,32 +1366,32 @@
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="2">
-        <v>6</v>
+      <c r="C20" s="13">
+        <v>7</v>
       </c>
       <c r="D20" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20" s="2">
-        <v>450393</v>
+        <v>661259</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H20" s="2">
-        <v>1.612149501299351</v>
+        <v>4.9740923029766089</v>
       </c>
       <c r="I20" s="2">
-        <v>0.49600556890382191</v>
+        <v>0.75690724476135407</v>
       </c>
       <c r="J20" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K20" s="2">
-        <v>60.550284808552448</v>
+        <v>88.898852296147126</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -1383,32 +1404,32 @@
       <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="2">
-        <v>7</v>
+      <c r="C21" s="13">
+        <v>8</v>
       </c>
       <c r="D21" s="2">
         <v>5</v>
       </c>
       <c r="E21" s="2">
-        <v>661259</v>
+        <v>407953</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H21" s="2">
-        <v>4.9740923029766089</v>
+        <v>6.1775156520347982</v>
       </c>
       <c r="I21" s="2">
-        <v>0.75690724476135407</v>
+        <v>1.558446682068384</v>
       </c>
       <c r="J21" s="2">
         <v>5</v>
       </c>
       <c r="K21" s="2">
-        <v>88.898852296147126</v>
+        <v>54.844703044903888</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
@@ -1421,32 +1442,32 @@
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="2">
-        <v>8</v>
+      <c r="C22" s="13">
+        <v>4</v>
       </c>
       <c r="D22" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2">
-        <v>407953</v>
+        <v>534643</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H22" s="2">
-        <v>6.1775156520347982</v>
+        <v>1.3202291374542401</v>
       </c>
       <c r="I22" s="2">
-        <v>1.558446682068384</v>
+        <v>0.54577485405239157</v>
       </c>
       <c r="J22" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2">
-        <v>54.844703044903888</v>
+        <v>71.876751905333592</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
@@ -1459,14 +1480,14 @@
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="2">
-        <v>4</v>
+      <c r="C23" s="13">
+        <v>5</v>
       </c>
       <c r="D23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="2">
-        <v>534643</v>
+        <v>368708</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -1475,16 +1496,16 @@
         <v>6</v>
       </c>
       <c r="H23" s="2">
-        <v>1.3202291374542401</v>
+        <v>2.718275473123672</v>
       </c>
       <c r="I23" s="2">
-        <v>0.54577485405239157</v>
+        <v>1.080008271853514</v>
       </c>
       <c r="J23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" s="2">
-        <v>71.876751905333592</v>
+        <v>49.56865317887214</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -1497,35 +1518,38 @@
       <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="2">
-        <v>5</v>
+      <c r="C24" s="13">
+        <v>83</v>
       </c>
       <c r="D24" s="2">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E24" s="2">
-        <v>368708</v>
+        <v>58383</v>
       </c>
       <c r="F24" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G24" s="2">
-        <v>6</v>
+        <v>999</v>
       </c>
       <c r="H24" s="2">
-        <v>2.718275473123672</v>
+        <v>48.853042282340247</v>
       </c>
       <c r="I24" s="2">
-        <v>1.080008271853514</v>
+        <v>19.600488111522239</v>
       </c>
       <c r="J24" s="2">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="K24" s="2">
-        <v>49.56865317887214</v>
+        <v>7.8489392108174822</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>7.8498802822676597</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1535,14 +1559,14 @@
       <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="2">
-        <v>83</v>
+      <c r="C25" s="13">
+        <v>84</v>
       </c>
       <c r="D25" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" s="2">
-        <v>58383</v>
+        <v>195705</v>
       </c>
       <c r="F25" s="2">
         <v>18</v>
@@ -1551,22 +1575,22 @@
         <v>999</v>
       </c>
       <c r="H25" s="2">
-        <v>48.853042282340247</v>
+        <v>183.81910993462239</v>
       </c>
       <c r="I25" s="2">
-        <v>19.600488111522239</v>
+        <v>313.95755549481839</v>
       </c>
       <c r="J25" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K25" s="2">
-        <v>7.8489392108174822</v>
+        <v>26.310341165288449</v>
       </c>
       <c r="L25" s="2">
-        <v>7.8498802822676597</v>
+        <v>5.1343513933907214</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1574,40 +1598,37 @@
         <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2">
-        <v>84</v>
+        <v>462</v>
       </c>
       <c r="D26" s="2">
-        <v>98</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="E26" s="2">
-        <v>195705</v>
+        <v>48351</v>
       </c>
       <c r="F26" s="2">
-        <v>18</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="G26" s="2">
-        <v>999</v>
+        <v>6.25</v>
       </c>
       <c r="H26" s="2">
-        <v>183.81910993462239</v>
+        <v>1.1005435353096731</v>
       </c>
       <c r="I26" s="2">
-        <v>313.95755549481839</v>
+        <v>1.594133494135231</v>
       </c>
       <c r="J26" s="2">
-        <v>98</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="K26" s="2">
-        <v>26.310341165288449</v>
+        <v>6.5002493839342961</v>
       </c>
       <c r="L26" s="2">
-        <v>5.1343513933907214</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1615,34 +1636,34 @@
         <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2">
-        <v>462</v>
+        <v>70681</v>
       </c>
       <c r="D27" s="2">
-        <v>3.8800000000000001E-2</v>
+        <v>100000</v>
       </c>
       <c r="E27" s="2">
-        <v>48351</v>
+        <v>7367</v>
       </c>
       <c r="F27" s="2">
-        <v>2.2499999999999999E-2</v>
+        <v>10000</v>
       </c>
       <c r="G27" s="2">
-        <v>6.25</v>
+        <v>1290000</v>
       </c>
       <c r="H27" s="2">
-        <v>1.1005435353096731</v>
+        <v>201377.52537868041</v>
       </c>
       <c r="I27" s="2">
-        <v>1.594133494135231</v>
+        <v>119505.916262372</v>
       </c>
       <c r="J27" s="2">
-        <v>3.8800000000000001E-2</v>
+        <v>100000</v>
       </c>
       <c r="K27" s="2">
-        <v>6.5002493839342961</v>
+        <v>0.99041048192268966</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
@@ -1653,34 +1674,34 @@
         <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2">
-        <v>70681</v>
+        <v>10166</v>
       </c>
       <c r="D28" s="2">
-        <v>100000</v>
+        <v>0.16</v>
       </c>
       <c r="E28" s="2">
-        <v>7367</v>
+        <v>13188</v>
       </c>
       <c r="F28" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>1290000</v>
+        <v>3671</v>
       </c>
       <c r="H28" s="2">
-        <v>201377.52537868041</v>
+        <v>6.5993089244494403</v>
       </c>
       <c r="I28" s="2">
-        <v>119505.916262372</v>
+        <v>23.56621609805476</v>
       </c>
       <c r="J28" s="2">
-        <v>100000</v>
+        <v>0.16</v>
       </c>
       <c r="K28" s="2">
-        <v>0.99041048192268966</v>
+        <v>1.7729786121347131</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
@@ -1691,34 +1712,34 @@
         <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2">
-        <v>10166</v>
+        <v>11687</v>
       </c>
       <c r="D29" s="2">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="E29" s="2">
-        <v>13188</v>
+        <v>8686</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>3671</v>
+        <v>8630</v>
       </c>
       <c r="H29" s="2">
-        <v>6.5993089244494403</v>
+        <v>10.276217433348609</v>
       </c>
       <c r="I29" s="2">
-        <v>23.56621609805476</v>
+        <v>35.54208270919046</v>
       </c>
       <c r="J29" s="2">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="K29" s="2">
-        <v>1.7729786121347131</v>
+        <v>1.16773523089188</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
@@ -1729,37 +1750,40 @@
         <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C30" s="2">
-        <v>11687</v>
+        <v>6</v>
       </c>
       <c r="D30" s="2">
-        <v>0.26</v>
+        <v>5</v>
       </c>
       <c r="E30" s="2">
-        <v>8686</v>
+        <v>437548</v>
       </c>
       <c r="F30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="2">
-        <v>8630</v>
+        <v>9</v>
       </c>
       <c r="H30" s="2">
-        <v>10.276217433348609</v>
+        <v>4.4289161680108302</v>
       </c>
       <c r="I30" s="2">
-        <v>35.54208270919046</v>
+        <v>0.83611619354533451</v>
       </c>
       <c r="J30" s="2">
-        <v>0.26</v>
+        <v>5</v>
       </c>
       <c r="K30" s="2">
-        <v>1.16773523089188</v>
+        <v>58.823418697476448</v>
       </c>
       <c r="L30" s="2">
-        <v>0</v>
+        <v>0.16818291202460769</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1776,7 +1800,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="2">
-        <v>437548</v>
+        <v>303540</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -1785,22 +1809,19 @@
         <v>9</v>
       </c>
       <c r="H31" s="2">
-        <v>4.4289161680108302</v>
+        <v>6.1935972187305488</v>
       </c>
       <c r="I31" s="2">
-        <v>0.83611619354533451</v>
+        <v>2.2423387920173452</v>
       </c>
       <c r="J31" s="2">
         <v>5</v>
       </c>
       <c r="K31" s="2">
-        <v>58.823418697476448</v>
+        <v>40.807546855275312</v>
       </c>
       <c r="L31" s="2">
-        <v>0.16818291202460769</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1811,71 +1832,33 @@
         <v>13</v>
       </c>
       <c r="C32" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2">
-        <v>303540</v>
+        <v>640966</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
       </c>
       <c r="G32" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H32" s="2">
-        <v>6.1935972187305488</v>
+        <v>1.861706861620821</v>
       </c>
       <c r="I32" s="2">
-        <v>2.2423387920173452</v>
+        <v>0.34520762805123412</v>
       </c>
       <c r="J32" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K32" s="2">
-        <v>40.807546855275312</v>
+        <v>86.170686162082077</v>
       </c>
       <c r="L32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="2">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2">
-        <v>2</v>
-      </c>
-      <c r="E33" s="2">
-        <v>640966</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2">
-        <v>2</v>
-      </c>
-      <c r="H33" s="2">
-        <v>1.861706861620821</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0.34520762805123412</v>
-      </c>
-      <c r="J33" s="2">
-        <v>2</v>
-      </c>
-      <c r="K33" s="2">
-        <v>86.170686162082077</v>
-      </c>
-      <c r="L33" s="2">
         <v>0</v>
       </c>
     </row>
